--- a/Vendor_Master.xlsx
+++ b/Vendor_Master.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arpith Shetty\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BFE2BAB-1CA0-439A-B792-8B3E6DC1DE57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="5060" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Car" sheetId="1" r:id="rId1"/>
@@ -24,28 +23,58 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>Vendor</t>
+  </si>
+  <si>
+    <t>Hotel Mittal</t>
+  </si>
+  <si>
+    <t>Hotel the benchmark</t>
+  </si>
+  <si>
+    <t>Anjushree</t>
+  </si>
+  <si>
+    <t>Shikhar Darshan</t>
+  </si>
+  <si>
+    <t>Tak Desire</t>
+  </si>
+  <si>
+    <t>Tak Ertiga</t>
+  </si>
+  <si>
+    <t>Shivam car</t>
+  </si>
+  <si>
+    <t>Jitendra dada</t>
+  </si>
+  <si>
+    <t>Bittu pandit</t>
+  </si>
+  <si>
+    <t>Tak</t>
+  </si>
+  <si>
+    <t>Bittu Pandit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -66,16 +95,16 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -93,7 +122,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -389,181 +418,663 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="8.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="14.25" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="14.25" customHeight="1">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="14.25" customHeight="1">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="14.25" customHeight="1">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="6" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="8" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="9" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="10" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="11" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="12" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="13" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="14" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="15" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="16" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="17" ht="14.25" customHeight="1"/>
+    <row r="18" ht="14.25" customHeight="1"/>
+    <row r="19" ht="14.25" customHeight="1"/>
+    <row r="20" ht="14.25" customHeight="1"/>
+    <row r="21" ht="14.25" customHeight="1"/>
+    <row r="22" ht="14.25" customHeight="1"/>
+    <row r="23" ht="14.25" customHeight="1"/>
+    <row r="24" ht="14.25" customHeight="1"/>
+    <row r="25" ht="14.25" customHeight="1"/>
+    <row r="26" ht="14.25" customHeight="1"/>
+    <row r="27" ht="14.25" customHeight="1"/>
+    <row r="28" ht="14.25" customHeight="1"/>
+    <row r="29" ht="14.25" customHeight="1"/>
+    <row r="30" ht="14.25" customHeight="1"/>
+    <row r="31" ht="14.25" customHeight="1"/>
+    <row r="32" ht="14.25" customHeight="1"/>
+    <row r="33" ht="14.25" customHeight="1"/>
+    <row r="34" ht="14.25" customHeight="1"/>
+    <row r="35" ht="14.25" customHeight="1"/>
+    <row r="36" ht="14.25" customHeight="1"/>
+    <row r="37" ht="14.25" customHeight="1"/>
+    <row r="38" ht="14.25" customHeight="1"/>
+    <row r="39" ht="14.25" customHeight="1"/>
+    <row r="40" ht="14.25" customHeight="1"/>
+    <row r="41" ht="14.25" customHeight="1"/>
+    <row r="42" ht="14.25" customHeight="1"/>
+    <row r="43" ht="14.25" customHeight="1"/>
+    <row r="44" ht="14.25" customHeight="1"/>
+    <row r="45" ht="14.25" customHeight="1"/>
+    <row r="46" ht="14.25" customHeight="1"/>
+    <row r="47" ht="14.25" customHeight="1"/>
+    <row r="48" ht="14.25" customHeight="1"/>
+    <row r="49" ht="14.25" customHeight="1"/>
+    <row r="50" ht="14.25" customHeight="1"/>
+    <row r="51" ht="14.25" customHeight="1"/>
+    <row r="52" ht="14.25" customHeight="1"/>
+    <row r="53" ht="14.25" customHeight="1"/>
+    <row r="54" ht="14.25" customHeight="1"/>
+    <row r="55" ht="14.25" customHeight="1"/>
+    <row r="56" ht="14.25" customHeight="1"/>
+    <row r="57" ht="14.25" customHeight="1"/>
+    <row r="58" ht="14.25" customHeight="1"/>
+    <row r="59" ht="14.25" customHeight="1"/>
+    <row r="60" ht="14.25" customHeight="1"/>
+    <row r="61" ht="14.25" customHeight="1"/>
+    <row r="62" ht="14.25" customHeight="1"/>
+    <row r="63" ht="14.25" customHeight="1"/>
+    <row r="64" ht="14.25" customHeight="1"/>
+    <row r="65" ht="14.25" customHeight="1"/>
+    <row r="66" ht="14.25" customHeight="1"/>
+    <row r="67" ht="14.25" customHeight="1"/>
+    <row r="68" ht="14.25" customHeight="1"/>
+    <row r="69" ht="14.25" customHeight="1"/>
+    <row r="70" ht="14.25" customHeight="1"/>
+    <row r="71" ht="14.25" customHeight="1"/>
+    <row r="72" ht="14.25" customHeight="1"/>
+    <row r="73" ht="14.25" customHeight="1"/>
+    <row r="74" ht="14.25" customHeight="1"/>
+    <row r="75" ht="14.25" customHeight="1"/>
+    <row r="76" ht="14.25" customHeight="1"/>
+    <row r="77" ht="14.25" customHeight="1"/>
+    <row r="78" ht="14.25" customHeight="1"/>
+    <row r="79" ht="14.25" customHeight="1"/>
+    <row r="80" ht="14.25" customHeight="1"/>
+    <row r="81" ht="14.25" customHeight="1"/>
+    <row r="82" ht="14.25" customHeight="1"/>
+    <row r="83" ht="14.25" customHeight="1"/>
+    <row r="84" ht="14.25" customHeight="1"/>
+    <row r="85" ht="14.25" customHeight="1"/>
+    <row r="86" ht="14.25" customHeight="1"/>
+    <row r="87" ht="14.25" customHeight="1"/>
+    <row r="88" ht="14.25" customHeight="1"/>
+    <row r="89" ht="14.25" customHeight="1"/>
+    <row r="90" ht="14.25" customHeight="1"/>
+    <row r="91" ht="14.25" customHeight="1"/>
+    <row r="92" ht="14.25" customHeight="1"/>
+    <row r="93" ht="14.25" customHeight="1"/>
+    <row r="94" ht="14.25" customHeight="1"/>
+    <row r="95" ht="14.25" customHeight="1"/>
+    <row r="96" ht="14.25" customHeight="1"/>
+    <row r="97" ht="14.25" customHeight="1"/>
+    <row r="98" ht="14.25" customHeight="1"/>
+    <row r="99" ht="14.25" customHeight="1"/>
+    <row r="100" ht="14.25" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="8.7265625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2">
+    <row r="2" spans="1:1" ht="14.25" customHeight="1">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3">
+    <row r="3" spans="1:1" ht="14.25" customHeight="1">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4">
+    <row r="4" spans="1:1" ht="14.25" customHeight="1">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5">
+    <row r="5" spans="1:1" ht="14.25" customHeight="1">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>6</v>
-      </c>
-    </row>
+    <row r="6" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="8" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="9" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="10" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="11" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="12" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="13" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="14" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="15" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="16" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="17" ht="14.25" customHeight="1"/>
+    <row r="18" ht="14.25" customHeight="1"/>
+    <row r="19" ht="14.25" customHeight="1"/>
+    <row r="20" ht="14.25" customHeight="1"/>
+    <row r="21" ht="14.25" customHeight="1"/>
+    <row r="22" ht="14.25" customHeight="1"/>
+    <row r="23" ht="14.25" customHeight="1"/>
+    <row r="24" ht="14.25" customHeight="1"/>
+    <row r="25" ht="14.25" customHeight="1"/>
+    <row r="26" ht="14.25" customHeight="1"/>
+    <row r="27" ht="14.25" customHeight="1"/>
+    <row r="28" ht="14.25" customHeight="1"/>
+    <row r="29" ht="14.25" customHeight="1"/>
+    <row r="30" ht="14.25" customHeight="1"/>
+    <row r="31" ht="14.25" customHeight="1"/>
+    <row r="32" ht="14.25" customHeight="1"/>
+    <row r="33" ht="14.25" customHeight="1"/>
+    <row r="34" ht="14.25" customHeight="1"/>
+    <row r="35" ht="14.25" customHeight="1"/>
+    <row r="36" ht="14.25" customHeight="1"/>
+    <row r="37" ht="14.25" customHeight="1"/>
+    <row r="38" ht="14.25" customHeight="1"/>
+    <row r="39" ht="14.25" customHeight="1"/>
+    <row r="40" ht="14.25" customHeight="1"/>
+    <row r="41" ht="14.25" customHeight="1"/>
+    <row r="42" ht="14.25" customHeight="1"/>
+    <row r="43" ht="14.25" customHeight="1"/>
+    <row r="44" ht="14.25" customHeight="1"/>
+    <row r="45" ht="14.25" customHeight="1"/>
+    <row r="46" ht="14.25" customHeight="1"/>
+    <row r="47" ht="14.25" customHeight="1"/>
+    <row r="48" ht="14.25" customHeight="1"/>
+    <row r="49" ht="14.25" customHeight="1"/>
+    <row r="50" ht="14.25" customHeight="1"/>
+    <row r="51" ht="14.25" customHeight="1"/>
+    <row r="52" ht="14.25" customHeight="1"/>
+    <row r="53" ht="14.25" customHeight="1"/>
+    <row r="54" ht="14.25" customHeight="1"/>
+    <row r="55" ht="14.25" customHeight="1"/>
+    <row r="56" ht="14.25" customHeight="1"/>
+    <row r="57" ht="14.25" customHeight="1"/>
+    <row r="58" ht="14.25" customHeight="1"/>
+    <row r="59" ht="14.25" customHeight="1"/>
+    <row r="60" ht="14.25" customHeight="1"/>
+    <row r="61" ht="14.25" customHeight="1"/>
+    <row r="62" ht="14.25" customHeight="1"/>
+    <row r="63" ht="14.25" customHeight="1"/>
+    <row r="64" ht="14.25" customHeight="1"/>
+    <row r="65" ht="14.25" customHeight="1"/>
+    <row r="66" ht="14.25" customHeight="1"/>
+    <row r="67" ht="14.25" customHeight="1"/>
+    <row r="68" ht="14.25" customHeight="1"/>
+    <row r="69" ht="14.25" customHeight="1"/>
+    <row r="70" ht="14.25" customHeight="1"/>
+    <row r="71" ht="14.25" customHeight="1"/>
+    <row r="72" ht="14.25" customHeight="1"/>
+    <row r="73" ht="14.25" customHeight="1"/>
+    <row r="74" ht="14.25" customHeight="1"/>
+    <row r="75" ht="14.25" customHeight="1"/>
+    <row r="76" ht="14.25" customHeight="1"/>
+    <row r="77" ht="14.25" customHeight="1"/>
+    <row r="78" ht="14.25" customHeight="1"/>
+    <row r="79" ht="14.25" customHeight="1"/>
+    <row r="80" ht="14.25" customHeight="1"/>
+    <row r="81" ht="14.25" customHeight="1"/>
+    <row r="82" ht="14.25" customHeight="1"/>
+    <row r="83" ht="14.25" customHeight="1"/>
+    <row r="84" ht="14.25" customHeight="1"/>
+    <row r="85" ht="14.25" customHeight="1"/>
+    <row r="86" ht="14.25" customHeight="1"/>
+    <row r="87" ht="14.25" customHeight="1"/>
+    <row r="88" ht="14.25" customHeight="1"/>
+    <row r="89" ht="14.25" customHeight="1"/>
+    <row r="90" ht="14.25" customHeight="1"/>
+    <row r="91" ht="14.25" customHeight="1"/>
+    <row r="92" ht="14.25" customHeight="1"/>
+    <row r="93" ht="14.25" customHeight="1"/>
+    <row r="94" ht="14.25" customHeight="1"/>
+    <row r="95" ht="14.25" customHeight="1"/>
+    <row r="96" ht="14.25" customHeight="1"/>
+    <row r="97" ht="14.25" customHeight="1"/>
+    <row r="98" ht="14.25" customHeight="1"/>
+    <row r="99" ht="14.25" customHeight="1"/>
+    <row r="100" ht="14.25" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:A3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="11" width="8.7265625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>12</v>
-      </c>
-    </row>
+    <row r="2" spans="1:1" ht="14.25" customHeight="1">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="14.25" customHeight="1">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="5" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="6" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="8" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="9" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="10" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="11" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="12" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="13" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="14" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="15" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="16" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="17" ht="14.25" customHeight="1"/>
+    <row r="18" ht="14.25" customHeight="1"/>
+    <row r="19" ht="14.25" customHeight="1"/>
+    <row r="20" ht="14.25" customHeight="1"/>
+    <row r="21" ht="14.25" customHeight="1"/>
+    <row r="22" ht="14.25" customHeight="1"/>
+    <row r="23" ht="14.25" customHeight="1"/>
+    <row r="24" ht="14.25" customHeight="1"/>
+    <row r="25" ht="14.25" customHeight="1"/>
+    <row r="26" ht="14.25" customHeight="1"/>
+    <row r="27" ht="14.25" customHeight="1"/>
+    <row r="28" ht="14.25" customHeight="1"/>
+    <row r="29" ht="14.25" customHeight="1"/>
+    <row r="30" ht="14.25" customHeight="1"/>
+    <row r="31" ht="14.25" customHeight="1"/>
+    <row r="32" ht="14.25" customHeight="1"/>
+    <row r="33" ht="14.25" customHeight="1"/>
+    <row r="34" ht="14.25" customHeight="1"/>
+    <row r="35" ht="14.25" customHeight="1"/>
+    <row r="36" ht="14.25" customHeight="1"/>
+    <row r="37" ht="14.25" customHeight="1"/>
+    <row r="38" ht="14.25" customHeight="1"/>
+    <row r="39" ht="14.25" customHeight="1"/>
+    <row r="40" ht="14.25" customHeight="1"/>
+    <row r="41" ht="14.25" customHeight="1"/>
+    <row r="42" ht="14.25" customHeight="1"/>
+    <row r="43" ht="14.25" customHeight="1"/>
+    <row r="44" ht="14.25" customHeight="1"/>
+    <row r="45" ht="14.25" customHeight="1"/>
+    <row r="46" ht="14.25" customHeight="1"/>
+    <row r="47" ht="14.25" customHeight="1"/>
+    <row r="48" ht="14.25" customHeight="1"/>
+    <row r="49" ht="14.25" customHeight="1"/>
+    <row r="50" ht="14.25" customHeight="1"/>
+    <row r="51" ht="14.25" customHeight="1"/>
+    <row r="52" ht="14.25" customHeight="1"/>
+    <row r="53" ht="14.25" customHeight="1"/>
+    <row r="54" ht="14.25" customHeight="1"/>
+    <row r="55" ht="14.25" customHeight="1"/>
+    <row r="56" ht="14.25" customHeight="1"/>
+    <row r="57" ht="14.25" customHeight="1"/>
+    <row r="58" ht="14.25" customHeight="1"/>
+    <row r="59" ht="14.25" customHeight="1"/>
+    <row r="60" ht="14.25" customHeight="1"/>
+    <row r="61" ht="14.25" customHeight="1"/>
+    <row r="62" ht="14.25" customHeight="1"/>
+    <row r="63" ht="14.25" customHeight="1"/>
+    <row r="64" ht="14.25" customHeight="1"/>
+    <row r="65" ht="14.25" customHeight="1"/>
+    <row r="66" ht="14.25" customHeight="1"/>
+    <row r="67" ht="14.25" customHeight="1"/>
+    <row r="68" ht="14.25" customHeight="1"/>
+    <row r="69" ht="14.25" customHeight="1"/>
+    <row r="70" ht="14.25" customHeight="1"/>
+    <row r="71" ht="14.25" customHeight="1"/>
+    <row r="72" ht="14.25" customHeight="1"/>
+    <row r="73" ht="14.25" customHeight="1"/>
+    <row r="74" ht="14.25" customHeight="1"/>
+    <row r="75" ht="14.25" customHeight="1"/>
+    <row r="76" ht="14.25" customHeight="1"/>
+    <row r="77" ht="14.25" customHeight="1"/>
+    <row r="78" ht="14.25" customHeight="1"/>
+    <row r="79" ht="14.25" customHeight="1"/>
+    <row r="80" ht="14.25" customHeight="1"/>
+    <row r="81" ht="14.25" customHeight="1"/>
+    <row r="82" ht="14.25" customHeight="1"/>
+    <row r="83" ht="14.25" customHeight="1"/>
+    <row r="84" ht="14.25" customHeight="1"/>
+    <row r="85" ht="14.25" customHeight="1"/>
+    <row r="86" ht="14.25" customHeight="1"/>
+    <row r="87" ht="14.25" customHeight="1"/>
+    <row r="88" ht="14.25" customHeight="1"/>
+    <row r="89" ht="14.25" customHeight="1"/>
+    <row r="90" ht="14.25" customHeight="1"/>
+    <row r="91" ht="14.25" customHeight="1"/>
+    <row r="92" ht="14.25" customHeight="1"/>
+    <row r="93" ht="14.25" customHeight="1"/>
+    <row r="94" ht="14.25" customHeight="1"/>
+    <row r="95" ht="14.25" customHeight="1"/>
+    <row r="96" ht="14.25" customHeight="1"/>
+    <row r="97" ht="14.25" customHeight="1"/>
+    <row r="98" ht="14.25" customHeight="1"/>
+    <row r="99" ht="14.25" customHeight="1"/>
+    <row r="100" ht="14.25" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:A3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="8.7265625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>202</v>
-      </c>
-    </row>
+    <row r="2" spans="1:1" ht="14.25" customHeight="1">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="4" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="5" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="6" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="8" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="9" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="10" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="11" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="12" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="13" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="14" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="15" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="16" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="17" ht="14.25" customHeight="1"/>
+    <row r="18" ht="14.25" customHeight="1"/>
+    <row r="19" ht="14.25" customHeight="1"/>
+    <row r="20" ht="14.25" customHeight="1"/>
+    <row r="21" ht="14.25" customHeight="1"/>
+    <row r="22" ht="14.25" customHeight="1"/>
+    <row r="23" ht="14.25" customHeight="1"/>
+    <row r="24" ht="14.25" customHeight="1"/>
+    <row r="25" ht="14.25" customHeight="1"/>
+    <row r="26" ht="14.25" customHeight="1"/>
+    <row r="27" ht="14.25" customHeight="1"/>
+    <row r="28" ht="14.25" customHeight="1"/>
+    <row r="29" ht="14.25" customHeight="1"/>
+    <row r="30" ht="14.25" customHeight="1"/>
+    <row r="31" ht="14.25" customHeight="1"/>
+    <row r="32" ht="14.25" customHeight="1"/>
+    <row r="33" ht="14.25" customHeight="1"/>
+    <row r="34" ht="14.25" customHeight="1"/>
+    <row r="35" ht="14.25" customHeight="1"/>
+    <row r="36" ht="14.25" customHeight="1"/>
+    <row r="37" ht="14.25" customHeight="1"/>
+    <row r="38" ht="14.25" customHeight="1"/>
+    <row r="39" ht="14.25" customHeight="1"/>
+    <row r="40" ht="14.25" customHeight="1"/>
+    <row r="41" ht="14.25" customHeight="1"/>
+    <row r="42" ht="14.25" customHeight="1"/>
+    <row r="43" ht="14.25" customHeight="1"/>
+    <row r="44" ht="14.25" customHeight="1"/>
+    <row r="45" ht="14.25" customHeight="1"/>
+    <row r="46" ht="14.25" customHeight="1"/>
+    <row r="47" ht="14.25" customHeight="1"/>
+    <row r="48" ht="14.25" customHeight="1"/>
+    <row r="49" ht="14.25" customHeight="1"/>
+    <row r="50" ht="14.25" customHeight="1"/>
+    <row r="51" ht="14.25" customHeight="1"/>
+    <row r="52" ht="14.25" customHeight="1"/>
+    <row r="53" ht="14.25" customHeight="1"/>
+    <row r="54" ht="14.25" customHeight="1"/>
+    <row r="55" ht="14.25" customHeight="1"/>
+    <row r="56" ht="14.25" customHeight="1"/>
+    <row r="57" ht="14.25" customHeight="1"/>
+    <row r="58" ht="14.25" customHeight="1"/>
+    <row r="59" ht="14.25" customHeight="1"/>
+    <row r="60" ht="14.25" customHeight="1"/>
+    <row r="61" ht="14.25" customHeight="1"/>
+    <row r="62" ht="14.25" customHeight="1"/>
+    <row r="63" ht="14.25" customHeight="1"/>
+    <row r="64" ht="14.25" customHeight="1"/>
+    <row r="65" ht="14.25" customHeight="1"/>
+    <row r="66" ht="14.25" customHeight="1"/>
+    <row r="67" ht="14.25" customHeight="1"/>
+    <row r="68" ht="14.25" customHeight="1"/>
+    <row r="69" ht="14.25" customHeight="1"/>
+    <row r="70" ht="14.25" customHeight="1"/>
+    <row r="71" ht="14.25" customHeight="1"/>
+    <row r="72" ht="14.25" customHeight="1"/>
+    <row r="73" ht="14.25" customHeight="1"/>
+    <row r="74" ht="14.25" customHeight="1"/>
+    <row r="75" ht="14.25" customHeight="1"/>
+    <row r="76" ht="14.25" customHeight="1"/>
+    <row r="77" ht="14.25" customHeight="1"/>
+    <row r="78" ht="14.25" customHeight="1"/>
+    <row r="79" ht="14.25" customHeight="1"/>
+    <row r="80" ht="14.25" customHeight="1"/>
+    <row r="81" ht="14.25" customHeight="1"/>
+    <row r="82" ht="14.25" customHeight="1"/>
+    <row r="83" ht="14.25" customHeight="1"/>
+    <row r="84" ht="14.25" customHeight="1"/>
+    <row r="85" ht="14.25" customHeight="1"/>
+    <row r="86" ht="14.25" customHeight="1"/>
+    <row r="87" ht="14.25" customHeight="1"/>
+    <row r="88" ht="14.25" customHeight="1"/>
+    <row r="89" ht="14.25" customHeight="1"/>
+    <row r="90" ht="14.25" customHeight="1"/>
+    <row r="91" ht="14.25" customHeight="1"/>
+    <row r="92" ht="14.25" customHeight="1"/>
+    <row r="93" ht="14.25" customHeight="1"/>
+    <row r="94" ht="14.25" customHeight="1"/>
+    <row r="95" ht="14.25" customHeight="1"/>
+    <row r="96" ht="14.25" customHeight="1"/>
+    <row r="97" ht="14.25" customHeight="1"/>
+    <row r="98" ht="14.25" customHeight="1"/>
+    <row r="99" ht="14.25" customHeight="1"/>
+    <row r="100" ht="14.25" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:A3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="11" width="8.7265625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>102</v>
-      </c>
-    </row>
+    <row r="2" spans="1:1" ht="14.25" customHeight="1">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="4" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="5" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="6" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="8" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="9" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="10" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="11" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="12" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="13" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="14" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="15" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="16" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="17" ht="14.25" customHeight="1"/>
+    <row r="18" ht="14.25" customHeight="1"/>
+    <row r="19" ht="14.25" customHeight="1"/>
+    <row r="20" ht="14.25" customHeight="1"/>
+    <row r="21" ht="14.25" customHeight="1"/>
+    <row r="22" ht="14.25" customHeight="1"/>
+    <row r="23" ht="14.25" customHeight="1"/>
+    <row r="24" ht="14.25" customHeight="1"/>
+    <row r="25" ht="14.25" customHeight="1"/>
+    <row r="26" ht="14.25" customHeight="1"/>
+    <row r="27" ht="14.25" customHeight="1"/>
+    <row r="28" ht="14.25" customHeight="1"/>
+    <row r="29" ht="14.25" customHeight="1"/>
+    <row r="30" ht="14.25" customHeight="1"/>
+    <row r="31" ht="14.25" customHeight="1"/>
+    <row r="32" ht="14.25" customHeight="1"/>
+    <row r="33" ht="14.25" customHeight="1"/>
+    <row r="34" ht="14.25" customHeight="1"/>
+    <row r="35" ht="14.25" customHeight="1"/>
+    <row r="36" ht="14.25" customHeight="1"/>
+    <row r="37" ht="14.25" customHeight="1"/>
+    <row r="38" ht="14.25" customHeight="1"/>
+    <row r="39" ht="14.25" customHeight="1"/>
+    <row r="40" ht="14.25" customHeight="1"/>
+    <row r="41" ht="14.25" customHeight="1"/>
+    <row r="42" ht="14.25" customHeight="1"/>
+    <row r="43" ht="14.25" customHeight="1"/>
+    <row r="44" ht="14.25" customHeight="1"/>
+    <row r="45" ht="14.25" customHeight="1"/>
+    <row r="46" ht="14.25" customHeight="1"/>
+    <row r="47" ht="14.25" customHeight="1"/>
+    <row r="48" ht="14.25" customHeight="1"/>
+    <row r="49" ht="14.25" customHeight="1"/>
+    <row r="50" ht="14.25" customHeight="1"/>
+    <row r="51" ht="14.25" customHeight="1"/>
+    <row r="52" ht="14.25" customHeight="1"/>
+    <row r="53" ht="14.25" customHeight="1"/>
+    <row r="54" ht="14.25" customHeight="1"/>
+    <row r="55" ht="14.25" customHeight="1"/>
+    <row r="56" ht="14.25" customHeight="1"/>
+    <row r="57" ht="14.25" customHeight="1"/>
+    <row r="58" ht="14.25" customHeight="1"/>
+    <row r="59" ht="14.25" customHeight="1"/>
+    <row r="60" ht="14.25" customHeight="1"/>
+    <row r="61" ht="14.25" customHeight="1"/>
+    <row r="62" ht="14.25" customHeight="1"/>
+    <row r="63" ht="14.25" customHeight="1"/>
+    <row r="64" ht="14.25" customHeight="1"/>
+    <row r="65" ht="14.25" customHeight="1"/>
+    <row r="66" ht="14.25" customHeight="1"/>
+    <row r="67" ht="14.25" customHeight="1"/>
+    <row r="68" ht="14.25" customHeight="1"/>
+    <row r="69" ht="14.25" customHeight="1"/>
+    <row r="70" ht="14.25" customHeight="1"/>
+    <row r="71" ht="14.25" customHeight="1"/>
+    <row r="72" ht="14.25" customHeight="1"/>
+    <row r="73" ht="14.25" customHeight="1"/>
+    <row r="74" ht="14.25" customHeight="1"/>
+    <row r="75" ht="14.25" customHeight="1"/>
+    <row r="76" ht="14.25" customHeight="1"/>
+    <row r="77" ht="14.25" customHeight="1"/>
+    <row r="78" ht="14.25" customHeight="1"/>
+    <row r="79" ht="14.25" customHeight="1"/>
+    <row r="80" ht="14.25" customHeight="1"/>
+    <row r="81" ht="14.25" customHeight="1"/>
+    <row r="82" ht="14.25" customHeight="1"/>
+    <row r="83" ht="14.25" customHeight="1"/>
+    <row r="84" ht="14.25" customHeight="1"/>
+    <row r="85" ht="14.25" customHeight="1"/>
+    <row r="86" ht="14.25" customHeight="1"/>
+    <row r="87" ht="14.25" customHeight="1"/>
+    <row r="88" ht="14.25" customHeight="1"/>
+    <row r="89" ht="14.25" customHeight="1"/>
+    <row r="90" ht="14.25" customHeight="1"/>
+    <row r="91" ht="14.25" customHeight="1"/>
+    <row r="92" ht="14.25" customHeight="1"/>
+    <row r="93" ht="14.25" customHeight="1"/>
+    <row r="94" ht="14.25" customHeight="1"/>
+    <row r="95" ht="14.25" customHeight="1"/>
+    <row r="96" ht="14.25" customHeight="1"/>
+    <row r="97" ht="14.25" customHeight="1"/>
+    <row r="98" ht="14.25" customHeight="1"/>
+    <row r="99" ht="14.25" customHeight="1"/>
+    <row r="100" ht="14.25" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>